--- a/raw/Construction_parameters.xlsx
+++ b/raw/Construction_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Checked_by_editor</t>
   </si>
@@ -17,7 +17,16 @@
     <t>Checked_by_student_assistant</t>
   </si>
   <si>
+    <t>Coding_frames_of_construction_parameter</t>
+  </si>
+  <si>
+    <t>Comments_by_contributor_for_editors</t>
+  </si>
+  <si>
     <t>Comments_by_editor</t>
+  </si>
+  <si>
+    <t>Comments_by_student_assistant</t>
   </si>
   <si>
     <t>Construction_parameter_ID</t>
@@ -174,15 +183,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="14">
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
     <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
     <numFmt formatCode="@" numFmtId="168"/>
     <numFmt formatCode="@" numFmtId="169"/>
     <numFmt formatCode="@" numFmtId="170"/>
+    <numFmt formatCode="@" numFmtId="171"/>
     <numFmt formatCode="@" numFmtId="172"/>
     <numFmt formatCode="@" numFmtId="173"/>
+    <numFmt formatCode="@" numFmtId="175"/>
+    <numFmt formatCode="@" numFmtId="176"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -218,7 +230,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -242,13 +254,22 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="175" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -284,326 +305,335 @@
       <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="D2" s="9">
+      <c r="G2" s="12">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="11">
-        <v>8</v>
+      <c r="H2" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s" s="14">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="11">
+      <c r="H3" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="G4" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="9">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="10">
+      <c r="H4" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="G5" s="12">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="H5" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="9">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="10">
+      <c r="H6" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" s="12">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="H8" t="s" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="H9" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" s="12">
+        <v>6.2</v>
+      </c>
+      <c r="H10" t="s" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="H11" t="s" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" s="12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" s="12">
+        <v>9.1</v>
+      </c>
+      <c r="H13" t="s" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" s="12">
+        <v>9.2</v>
+      </c>
+      <c r="H14" t="s" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" s="12">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="H15" t="s" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="9">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="10">
+      <c r="H16" t="s" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" s="12">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="H17" t="s" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="9">
-        <v>5.1</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="11">
+      <c r="H18" t="s" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" s="12">
+        <v>18.1</v>
+      </c>
+      <c r="H19" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20" s="12">
+        <v>18.2</v>
+      </c>
+      <c r="H20" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="E8" t="s" s="10">
+      <c r="H21" t="s" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="9">
-        <v>6.1</v>
-      </c>
-      <c r="E9" t="s" s="10">
+      <c r="H22" t="s" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" s="12">
+        <v>40.1</v>
+      </c>
+      <c r="H23" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" s="12">
+        <v>40.2</v>
+      </c>
+      <c r="H24" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" s="12">
+        <v>40.3</v>
+      </c>
+      <c r="H25" t="s" s="13">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" s="12">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="H27" t="s" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="H28" t="s" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="H29" t="s" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="H30" t="s" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="s" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="H32" t="s" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="9">
-        <v>6.2</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="9">
-        <v>6.3</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="9">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="9">
-        <v>9.2</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="9">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="9">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="9">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="9">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="9">
-        <v>18.1</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="9">
-        <v>18.2</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" s="9">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" s="9">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="9">
-        <v>40.1</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s" s="11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" s="9">
-        <v>40.2</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F24" t="s" s="11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" s="9">
-        <v>40.3</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s" s="11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" s="9">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="E27" t="s" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" s="9">
-        <v>7.3</v>
-      </c>
-      <c r="E29" t="s" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="E30" t="s" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" s="9">
-        <v>7.6</v>
-      </c>
-      <c r="E32" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" s="9">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s" s="10">
-        <v>48</v>
+      <c r="H33" t="s" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="9">
+      <c r="G34" s="12">
         <v>91</v>
       </c>
-      <c r="E34" t="s" s="10">
-        <v>49</v>
+      <c r="H34" t="s" s="13">
+        <v>52</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="9">
+      <c r="G35" s="12">
         <v>96</v>
       </c>
-      <c r="E35" t="s" s="10">
-        <v>50</v>
+      <c r="H35" t="s" s="13">
+        <v>53</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="9">
+      <c r="G36" s="12">
         <v>97</v>
       </c>
-      <c r="E36" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="G36" s="12">
+      <c r="H36" t="s" s="13">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="J36" s="15">
         <v>2</v>
       </c>
     </row>

--- a/raw/Construction_parameters.xlsx
+++ b/raw/Construction_parameters.xlsx
@@ -9,25 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>Checked_by_editor</t>
-  </si>
-  <si>
-    <t>Checked_by_student_assistant</t>
-  </si>
-  <si>
-    <t>Coding_frames_of_construction_parameter</t>
-  </si>
-  <si>
-    <t>Comments_by_contributor_for_editors</t>
-  </si>
-  <si>
-    <t>Comments_by_editor</t>
-  </si>
-  <si>
-    <t>Comments_by_student_assistant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Construction_parameter_ID</t>
   </si>
@@ -38,16 +20,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Meaning_ID</t>
-  </si>
-  <si>
     <t>D01 Word order</t>
   </si>
   <si>
     <t>REC &gt; THM, THM &gt; REC, etc.</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>D13 Passivization</t>
@@ -183,18 +159,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="7">
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
     <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="@" numFmtId="168"/>
     <numFmt formatCode="@" numFmtId="169"/>
     <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="172"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-    <numFmt formatCode="@" numFmtId="175"/>
-    <numFmt formatCode="@" numFmtId="176"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -230,7 +200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -245,34 +215,13 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="175" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
   </cellXfs>
@@ -293,348 +242,321 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+    </row>
+    <row r="2">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="C2" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="C3" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+    </row>
+    <row r="4">
+      <c r="A4" s="6">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="C4" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="G2" s="12">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s" s="13">
+      <c r="C5" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="14">
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="C6" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="G3" s="12">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s" s="13">
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>5.1</v>
+      </c>
+      <c r="B7" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="I3" t="s" s="14">
+      <c r="C7" t="s" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="G4" s="12">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s" s="13">
+    <row r="8">
+      <c r="A8" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="14">
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="B9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="12">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s" s="13">
+    <row r="10">
+      <c r="A10" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="B10" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I5" t="s" s="14">
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="B11" t="s" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="G6" s="12">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s" s="13">
+    <row r="12">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="14">
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="B13" t="s" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="G7" s="12">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="s" s="13">
+    <row r="14">
+      <c r="A14" s="6">
+        <v>9.2</v>
+      </c>
+      <c r="B14" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="I7" t="s" s="14">
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="G8" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="H8" t="s" s="13">
+    <row r="16">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="G9" s="12">
-        <v>6.1</v>
-      </c>
-      <c r="H9" t="s" s="13">
+    <row r="17">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="G10" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="H10" t="s" s="13">
+    <row r="18">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="G11" s="12">
-        <v>6.3</v>
-      </c>
-      <c r="H11" t="s" s="13">
+    <row r="19">
+      <c r="A19" s="6">
+        <v>18.1</v>
+      </c>
+      <c r="B19" t="s" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="12">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s" s="13">
+      <c r="C19" t="s" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="13">
-      <c r="G13" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="H13" t="s" s="13">
+    <row r="20">
+      <c r="A20" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="B20" t="s" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="G14" s="12">
-        <v>9.2</v>
-      </c>
-      <c r="H14" t="s" s="13">
+      <c r="C20" t="s" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="15">
-      <c r="G15" s="12">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s" s="13">
+    <row r="21">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="G16" s="12">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s" s="13">
+    <row r="22">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
-      <c r="G17" s="12">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s" s="13">
+    <row r="23">
+      <c r="A23" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="B23" t="s" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="G18" s="12">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s" s="13">
+      <c r="C23" t="s" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="19">
-      <c r="G19" s="12">
-        <v>18.1</v>
-      </c>
-      <c r="H19" t="s" s="13">
+    <row r="24">
+      <c r="A24" s="6">
+        <v>40.2</v>
+      </c>
+      <c r="B24" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="I19" t="s" s="14">
+      <c r="C24" t="s" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>40.3</v>
+      </c>
+      <c r="B25" t="s" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="G20" s="12">
-        <v>18.2</v>
-      </c>
-      <c r="H20" t="s" s="13">
+      <c r="C25" t="s" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="I20" t="s" s="14">
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="B27" t="s" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
-      <c r="G21" s="12">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s" s="13">
+    <row r="28">
+      <c r="A28" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="B28" t="s" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="22">
-      <c r="G22" s="12">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s" s="13">
+    <row r="29">
+      <c r="A29" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="B29" t="s" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="23">
-      <c r="G23" s="12">
-        <v>40.1</v>
-      </c>
-      <c r="H23" t="s" s="13">
+    <row r="30">
+      <c r="A30" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="B30" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="I23" t="s" s="14">
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="B31" t="s" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="24">
-      <c r="G24" s="12">
-        <v>40.2</v>
-      </c>
-      <c r="H24" t="s" s="13">
+    <row r="32">
+      <c r="A32" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="B32" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="I24" t="s" s="14">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="G25" s="12">
-        <v>40.3</v>
-      </c>
-      <c r="H25" t="s" s="13">
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="I25" t="s" s="14">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="G26" s="12">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s" s="13">
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
-      <c r="G27" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="H27" t="s" s="13">
+    <row r="35">
+      <c r="A35" s="6">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="28">
-      <c r="G28" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="H28" t="s" s="13">
+    <row r="36">
+      <c r="A36" s="6">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="G29" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="H29" t="s" s="13">
+      <c r="C36" t="s" s="8">
         <v>47</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="G30" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="H30" t="s" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="G31" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="H31" t="s" s="13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="G32" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="H32" t="s" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="G33" s="12">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s" s="13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="G34" s="12">
-        <v>91</v>
-      </c>
-      <c r="H34" t="s" s="13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="G35" s="12">
-        <v>96</v>
-      </c>
-      <c r="H35" t="s" s="13">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="G36" s="12">
-        <v>97</v>
-      </c>
-      <c r="H36" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="I36" t="s" s="14">
-        <v>55</v>
-      </c>
-      <c r="J36" s="15">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Construction_parameters.xlsx
+++ b/raw/Construction_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Construction_parameter_ID</t>
   </si>
@@ -20,18 +20,57 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Meaning_ID</t>
+  </si>
+  <si>
     <t>D01 Word order</t>
   </si>
   <si>
     <t>REC &gt; THM, THM &gt; REC, etc.</t>
   </si>
   <si>
+    <t>D02 Flagging of recipient</t>
+  </si>
+  <si>
+    <t>flagging of full NP; i.e. adpositional or case marking</t>
+  </si>
+  <si>
+    <t>D03 Flagging of theme</t>
+  </si>
+  <si>
+    <t>D04 Indexing of recipient</t>
+  </si>
+  <si>
+    <t>D05 Indexing of theme</t>
+  </si>
+  <si>
+    <t>D06 Indexing and full NPs</t>
+  </si>
+  <si>
+    <t>D07 Alignment of flagging</t>
+  </si>
+  <si>
+    <t>D08 Alignment of indexing</t>
+  </si>
+  <si>
+    <t>D09 Lexical properties</t>
+  </si>
+  <si>
+    <t>D11 Applicatives</t>
+  </si>
+  <si>
     <t>D13 Passivization</t>
   </si>
   <si>
     <t>active subject backgrounded, active object becomes subject...</t>
   </si>
   <si>
+    <t>D14 Reflexivization</t>
+  </si>
+  <si>
+    <t>D15 Reciprocal constructions</t>
+  </si>
+  <si>
     <t>D16 Relativization</t>
   </si>
   <si>
@@ -50,45 +89,15 @@
     <t>noun derived from verb...</t>
   </si>
   <si>
-    <t>D02 Flagging of recipient</t>
-  </si>
-  <si>
-    <t>flagging of full NP; i.e. adpositional or case marking</t>
-  </si>
-  <si>
-    <t>D03 Flagging of theme</t>
-  </si>
-  <si>
-    <t>D04 Indexing of recipient</t>
-  </si>
-  <si>
-    <t>D05 Indexing of theme</t>
-  </si>
-  <si>
-    <t>D06 Indexing and full NPs</t>
-  </si>
-  <si>
-    <t>D09 Lexical properties</t>
-  </si>
-  <si>
-    <t>D11 Applicatives</t>
-  </si>
-  <si>
-    <t>Comments on causatives</t>
-  </si>
-  <si>
-    <t>D14 Reflexivization</t>
-  </si>
-  <si>
-    <t>D15 Reciprocal constructions</t>
-  </si>
-  <si>
     <t>D19 Suppletion</t>
   </si>
   <si>
     <t>D20 Quantifier Float</t>
   </si>
   <si>
+    <t>D21 Incorporation</t>
+  </si>
+  <si>
     <t>D22 Quantifier-Variable Binding (Recipient)</t>
   </si>
   <si>
@@ -101,65 +110,41 @@
     <t>I showed every picture to its owner.</t>
   </si>
   <si>
-    <t>D21 Incorporation</t>
-  </si>
-  <si>
     <t>D24 Object Omission</t>
   </si>
   <si>
+    <t>D25 Topicalization</t>
+  </si>
+  <si>
     <t>D26 Animate Theme</t>
   </si>
   <si>
     <t>Is this possible?</t>
   </si>
   <si>
+    <t>D27 Inanimate Recipient</t>
+  </si>
+  <si>
+    <t>D28 Control</t>
+  </si>
+  <si>
     <t>D29 Locuphoric T</t>
   </si>
   <si>
-    <t>D27 Inanimate Recipient</t>
-  </si>
-  <si>
-    <t>D28 Control</t>
-  </si>
-  <si>
-    <t>D07 Alignment of flagging</t>
-  </si>
-  <si>
-    <t>D08 Alignment of indexing</t>
-  </si>
-  <si>
-    <t>M1 Flagging of agent</t>
-  </si>
-  <si>
-    <t>M2 Flagging of patient</t>
-  </si>
-  <si>
-    <t>M3 Indexing of agent</t>
-  </si>
-  <si>
-    <t>M4 Indexing of patient</t>
-  </si>
-  <si>
-    <t>D25 Topicalization</t>
-  </si>
-  <si>
-    <t>D90 Antipassive</t>
+    <t>D30 Antipassive</t>
+  </si>
+  <si>
+    <t>D31 Comments on causatives</t>
   </si>
   <si>
     <t>Other relevant phenomena</t>
-  </si>
-  <si>
-    <t>WALS alignment</t>
-  </si>
-  <si>
-    <t>General alignment as classified for WALS by Martin Haspelmath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
     <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
@@ -200,7 +185,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -222,6 +207,9 @@
       <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
   </cellXfs>
@@ -242,321 +230,281 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6">
         <v>4</v>
       </c>
       <c r="B2" t="s" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>11</v>
+        <v>5.2</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="B5" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="8">
-        <v>10</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>9.1</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>9.2</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>24</v>
       </c>
+      <c r="C17" t="s" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>18.1</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C20" t="s" s="8">
-        <v>29</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>18.1</v>
       </c>
       <c r="B21" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>18.2</v>
       </c>
       <c r="B22" t="s" s="7">
         <v>31</v>
       </c>
+      <c r="C22" t="s" s="8">
+        <v>32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>40.1</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>40.2</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C24" t="s" s="8">
-        <v>33</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="B25" t="s" s="7">
         <v>35</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>90</v>
+        <v>40.3</v>
       </c>
       <c r="B26" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>7.1</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>7.2</v>
+        <v>40.2</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>7.3</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>7.4</v>
+        <v>9.2</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>7.5</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="B32" t="s" s="7">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6">
-        <v>97</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s" s="8">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Construction_parameters.xlsx
+++ b/raw/Construction_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Construction_parameter_ID</t>
   </si>
@@ -20,15 +20,36 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Meaning_ID</t>
-  </si>
-  <si>
     <t>D01 Word order</t>
   </si>
   <si>
     <t>REC &gt; THM, THM &gt; REC, etc.</t>
   </si>
   <si>
+    <t>D13 Passivization</t>
+  </si>
+  <si>
+    <t>active subject backgrounded, active object becomes subject...</t>
+  </si>
+  <si>
+    <t>D16 Relativization</t>
+  </si>
+  <si>
+    <t>relative clause formation...</t>
+  </si>
+  <si>
+    <t>D17 Constituent questions</t>
+  </si>
+  <si>
+    <t>wh-...</t>
+  </si>
+  <si>
+    <t>D18 Nominalization</t>
+  </si>
+  <si>
+    <t>noun derived from verb...</t>
+  </si>
+  <si>
     <t>D02 Flagging of recipient</t>
   </si>
   <si>
@@ -47,104 +68,98 @@
     <t>D06 Indexing and full NPs</t>
   </si>
   <si>
+    <t>D09 Lexical properties</t>
+  </si>
+  <si>
+    <t>D11 Applicatives</t>
+  </si>
+  <si>
+    <t>Comments on causatives</t>
+  </si>
+  <si>
+    <t>D14 Reflexivization</t>
+  </si>
+  <si>
+    <t>D15 Reciprocal constructions</t>
+  </si>
+  <si>
+    <t>D19 Suppletion</t>
+  </si>
+  <si>
+    <t>D20 Quantifier Float</t>
+  </si>
+  <si>
+    <t>D22 Quantifier-Variable Binding (Recipient)</t>
+  </si>
+  <si>
+    <t>I showed every boy his picture.</t>
+  </si>
+  <si>
+    <t>D23 Quantifier-Variable Binding (Theme)</t>
+  </si>
+  <si>
+    <t>I showed every picture to its owner.</t>
+  </si>
+  <si>
+    <t>D21 Incorporation</t>
+  </si>
+  <si>
+    <t>D24 Object Omission</t>
+  </si>
+  <si>
+    <t>D26 Animate Theme</t>
+  </si>
+  <si>
+    <t>Is this possible?</t>
+  </si>
+  <si>
+    <t>D29 Locuphoric T</t>
+  </si>
+  <si>
+    <t>D27 Inanimate Recipient</t>
+  </si>
+  <si>
+    <t>D28 Control</t>
+  </si>
+  <si>
     <t>D07 Alignment of flagging</t>
   </si>
   <si>
     <t>D08 Alignment of indexing</t>
   </si>
   <si>
-    <t>D09 Lexical properties</t>
-  </si>
-  <si>
-    <t>D11 Applicatives</t>
-  </si>
-  <si>
-    <t>D13 Passivization</t>
-  </si>
-  <si>
-    <t>active subject backgrounded, active object becomes subject...</t>
-  </si>
-  <si>
-    <t>D14 Reflexivization</t>
-  </si>
-  <si>
-    <t>D15 Reciprocal constructions</t>
-  </si>
-  <si>
-    <t>D16 Relativization</t>
-  </si>
-  <si>
-    <t>relative clause formation...</t>
-  </si>
-  <si>
-    <t>D17 Constituent questions</t>
-  </si>
-  <si>
-    <t>wh-...</t>
-  </si>
-  <si>
-    <t>D18 Nominalization</t>
-  </si>
-  <si>
-    <t>noun derived from verb...</t>
-  </si>
-  <si>
-    <t>D19 Suppletion</t>
-  </si>
-  <si>
-    <t>D20 Quantifier Float</t>
-  </si>
-  <si>
-    <t>D21 Incorporation</t>
-  </si>
-  <si>
-    <t>D22 Quantifier-Variable Binding (Recipient)</t>
-  </si>
-  <si>
-    <t>I showed every boy his picture.</t>
-  </si>
-  <si>
-    <t>D23 Quantifier-Variable Binding (Theme)</t>
-  </si>
-  <si>
-    <t>I showed every picture to its owner.</t>
-  </si>
-  <si>
-    <t>D24 Object Omission</t>
+    <t>M1 Flagging of agent</t>
+  </si>
+  <si>
+    <t>M2 Flagging of patient</t>
+  </si>
+  <si>
+    <t>M3 Indexing of agent</t>
+  </si>
+  <si>
+    <t>M4 Indexing of patient</t>
   </si>
   <si>
     <t>D25 Topicalization</t>
   </si>
   <si>
-    <t>D26 Animate Theme</t>
-  </si>
-  <si>
-    <t>Is this possible?</t>
-  </si>
-  <si>
-    <t>D27 Inanimate Recipient</t>
-  </si>
-  <si>
-    <t>D28 Control</t>
-  </si>
-  <si>
-    <t>D29 Locuphoric T</t>
-  </si>
-  <si>
-    <t>D30 Antipassive</t>
-  </si>
-  <si>
-    <t>D31 Comments on causatives</t>
+    <t>D90 Antipassive</t>
   </si>
   <si>
     <t>Other relevant phenomena</t>
+  </si>
+  <si>
+    <t>WALS alignment</t>
+  </si>
+  <si>
+    <t>General alignment as classified for WALS by Martin Haspelmath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
     <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
@@ -185,7 +200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -207,9 +222,6 @@
       <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
   </cellXfs>
@@ -230,281 +242,321 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="6">
         <v>4</v>
       </c>
       <c r="B2" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="8">
         <v>4</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>5.1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="8">
         <v>6</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="7">
         <v>9</v>
       </c>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>14</v>
+        <v>9.1</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>15</v>
+        <v>9.2</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="C17" t="s" s="8">
-        <v>25</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>17</v>
+        <v>18.1</v>
       </c>
       <c r="B19" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>28</v>
       </c>
+      <c r="C20" t="s" s="8">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>18.1</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>18.2</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>32</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>20</v>
+        <v>40.1</v>
       </c>
       <c r="B23" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>21</v>
+        <v>40.2</v>
       </c>
       <c r="B24" t="s" s="7">
         <v>34</v>
       </c>
+      <c r="C24" t="s" s="8">
+        <v>33</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="B25" t="s" s="7">
         <v>35</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>40.3</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>90</v>
+        <v>7.1</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>40.2</v>
+        <v>7.2</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>91</v>
+        <v>7.3</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>9.2</v>
+        <v>7.4</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
         <v>96</v>
       </c>
-      <c r="B31" t="s" s="7">
-        <v>42</v>
+      <c r="B35" t="s" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s" s="8">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Construction_parameters.xlsx
+++ b/raw/Construction_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Construction_parameter_ID</t>
   </si>
@@ -20,139 +20,115 @@
     <t>Description</t>
   </si>
   <si>
-    <t>D01 Word order</t>
+    <t>01 Word order</t>
   </si>
   <si>
     <t>REC &gt; THM, THM &gt; REC, etc.</t>
   </si>
   <si>
-    <t>D13 Passivization</t>
+    <t>09 Passivization</t>
   </si>
   <si>
     <t>active subject backgrounded, active object becomes subject...</t>
   </si>
   <si>
-    <t>D16 Relativization</t>
+    <t>12 Relativization</t>
   </si>
   <si>
     <t>relative clause formation...</t>
   </si>
   <si>
-    <t>D17 Constituent questions</t>
+    <t>Constituent questions</t>
   </si>
   <si>
     <t>wh-...</t>
   </si>
   <si>
-    <t>D18 Nominalization</t>
+    <t>Nominalization</t>
   </si>
   <si>
     <t>noun derived from verb...</t>
   </si>
   <si>
-    <t>D02 Flagging of recipient</t>
+    <t>02 Flagging of recipient</t>
   </si>
   <si>
     <t>flagging of full NP; i.e. adpositional or case marking</t>
   </si>
   <si>
-    <t>D03 Flagging of theme</t>
-  </si>
-  <si>
-    <t>D04 Indexing of recipient</t>
-  </si>
-  <si>
-    <t>D05 Indexing of theme</t>
-  </si>
-  <si>
-    <t>D06 Indexing and full NPs</t>
-  </si>
-  <si>
-    <t>D09 Lexical properties</t>
-  </si>
-  <si>
-    <t>D11 Applicatives</t>
+    <t>03 Flagging of theme</t>
+  </si>
+  <si>
+    <t>04 Indexing of recipient</t>
+  </si>
+  <si>
+    <t>05 Indexing of theme</t>
+  </si>
+  <si>
+    <t>Lexical properties</t>
+  </si>
+  <si>
+    <t>Applicatives</t>
   </si>
   <si>
     <t>Comments on causatives</t>
   </si>
   <si>
-    <t>D14 Reflexivization</t>
-  </si>
-  <si>
-    <t>D15 Reciprocal constructions</t>
-  </si>
-  <si>
-    <t>D19 Suppletion</t>
-  </si>
-  <si>
-    <t>D20 Quantifier Float</t>
-  </si>
-  <si>
-    <t>D22 Quantifier-Variable Binding (Recipient)</t>
+    <t>10 Reflexivization</t>
+  </si>
+  <si>
+    <t>11 Reciprocalization</t>
+  </si>
+  <si>
+    <t>Suppletion</t>
+  </si>
+  <si>
+    <t>Quantifier Float</t>
+  </si>
+  <si>
+    <t>Quantifier-Variable Binding (Recipient)</t>
   </si>
   <si>
     <t>I showed every boy his picture.</t>
   </si>
   <si>
-    <t>D23 Quantifier-Variable Binding (Theme)</t>
+    <t>Quantifier-Variable Binding (Theme)</t>
   </si>
   <si>
     <t>I showed every picture to its owner.</t>
   </si>
   <si>
-    <t>D21 Incorporation</t>
-  </si>
-  <si>
-    <t>D24 Object Omission</t>
-  </si>
-  <si>
-    <t>D26 Animate Theme</t>
+    <t>Incorporation</t>
+  </si>
+  <si>
+    <t>Object Omission</t>
+  </si>
+  <si>
+    <t>Animate Theme</t>
   </si>
   <si>
     <t>Is this possible?</t>
   </si>
   <si>
-    <t>D29 Locuphoric T</t>
-  </si>
-  <si>
-    <t>D27 Inanimate Recipient</t>
-  </si>
-  <si>
-    <t>D28 Control</t>
-  </si>
-  <si>
-    <t>D07 Alignment of flagging</t>
-  </si>
-  <si>
-    <t>D08 Alignment of indexing</t>
-  </si>
-  <si>
-    <t>M1 Flagging of agent</t>
-  </si>
-  <si>
-    <t>M2 Flagging of patient</t>
-  </si>
-  <si>
-    <t>M3 Indexing of agent</t>
-  </si>
-  <si>
-    <t>M4 Indexing of patient</t>
-  </si>
-  <si>
-    <t>D25 Topicalization</t>
-  </si>
-  <si>
-    <t>D90 Antipassive</t>
+    <t>Locuphoric T</t>
+  </si>
+  <si>
+    <t>Inanimate Recipient</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>07 Alignment of flagging</t>
+  </si>
+  <si>
+    <t>08 Alignment of indexing</t>
+  </si>
+  <si>
+    <t>Antipassive</t>
   </si>
   <si>
     <t>Other relevant phenomena</t>
-  </si>
-  <si>
-    <t>WALS alignment</t>
-  </si>
-  <si>
-    <t>General alignment as classified for WALS by Martin Haspelmath</t>
   </si>
 </sst>
 </file>
@@ -335,7 +311,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s" s="7">
         <v>18</v>
@@ -343,7 +319,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="B12" t="s" s="7">
         <v>19</v>
@@ -351,7 +327,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>9.1</v>
+        <v>9.2</v>
       </c>
       <c r="B13" t="s" s="7">
         <v>20</v>
@@ -359,7 +335,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>9.2</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="7">
         <v>21</v>
@@ -367,7 +343,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s" s="7">
         <v>22</v>
@@ -375,7 +351,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s" s="7">
         <v>23</v>
@@ -383,7 +359,7 @@
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>24</v>
@@ -391,37 +367,37 @@
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>18.1</v>
       </c>
       <c r="B18" t="s" s="7">
         <v>25</v>
       </c>
+      <c r="C18" t="s" s="8">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>30</v>
@@ -429,48 +405,48 @@
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>40.1</v>
       </c>
       <c r="B22" t="s" s="7">
         <v>31</v>
       </c>
+      <c r="C22" t="s" s="8">
+        <v>32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="B23" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="B24" t="s" s="7">
         <v>34</v>
       </c>
       <c r="C24" t="s" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>40.3</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C25" t="s" s="8">
-        <v>33</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>90</v>
+        <v>7.1</v>
       </c>
       <c r="B26" t="s" s="7">
         <v>36</v>
@@ -478,7 +454,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="B27" t="s" s="7">
         <v>37</v>
@@ -486,7 +462,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>7.2</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s" s="7">
         <v>38</v>
@@ -494,69 +470,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>7.3</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s" s="7">
         <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6">
-        <v>97</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s" s="8">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Construction_parameters.xlsx
+++ b/raw/Construction_parameters.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Construction_parameter_ID</t>
   </si>
@@ -20,58 +20,82 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Word order</t>
+  </si>
+  <si>
+    <t>What is the order of R-argument and T-argument with respect to each other?</t>
+  </si>
+  <si>
+    <t>Flagging of recipient</t>
+  </si>
+  <si>
+    <t>Is the R-argument flagged, and if so, how?</t>
+  </si>
+  <si>
+    <t>Flagging of theme</t>
+  </si>
+  <si>
+    <t>Is the T-argument flagged, and if so, how?</t>
+  </si>
+  <si>
+    <t>Indexing of recipient</t>
+  </si>
+  <si>
+    <t>Is the R-argument indexed, and if so, how?</t>
+  </si>
+  <si>
+    <t>Indexing of theme</t>
+  </si>
+  <si>
+    <t>Is the T-argument indexed, and if so, how?</t>
+  </si>
+  <si>
+    <t>Alignment of flagging</t>
+  </si>
+  <si>
+    <t>What is the ditransitive alignment of flagging (case or adpositional marking)?</t>
+  </si>
+  <si>
+    <t>Alignment of indexing</t>
+  </si>
+  <si>
+    <t>What is the ditransitive alignment of indexing?</t>
+  </si>
+  <si>
+    <t>Passivization</t>
+  </si>
+  <si>
+    <t>Which object can be come subject in a passive construction?</t>
+  </si>
+  <si>
+    <t>Reflexivization</t>
+  </si>
+  <si>
+    <t>Which object can be reflexivized?</t>
+  </si>
+  <si>
+    <t>Reciprocalization</t>
+  </si>
+  <si>
+    <t>Which object can be reciprocalized?</t>
+  </si>
+  <si>
+    <t>Relativization</t>
+  </si>
+  <si>
+    <t>Which object can be relativized?</t>
+  </si>
+  <si>
+    <t>Constituent questions</t>
+  </si>
+  <si>
+    <t>Which object can be questioned in a constituent question?</t>
+  </si>
+  <si>
     <t>Incorporation</t>
   </si>
   <si>
-    <t>Reciprocalization (11)</t>
-  </si>
-  <si>
-    <t>Reflexivization (10)</t>
-  </si>
-  <si>
-    <t>Constituent questions</t>
-  </si>
-  <si>
-    <t>wh-...</t>
-  </si>
-  <si>
-    <t>Relativization (12)</t>
-  </si>
-  <si>
-    <t>relative clause formation...</t>
-  </si>
-  <si>
-    <t>Passivization (09)</t>
-  </si>
-  <si>
-    <t>active subject backgrounded, active object becomes subject...</t>
-  </si>
-  <si>
-    <t>Word order (01)</t>
-  </si>
-  <si>
-    <t>REC &gt; THM, THM &gt; REC, etc.</t>
-  </si>
-  <si>
-    <t>Alignment of indexing (08)</t>
-  </si>
-  <si>
-    <t>Alignment of flagging (07)</t>
-  </si>
-  <si>
-    <t>Indexing of recipient (04)</t>
-  </si>
-  <si>
-    <t>Indexing of theme (05)</t>
-  </si>
-  <si>
-    <t>Flagging of theme (03)</t>
-  </si>
-  <si>
-    <t>Flagging of recipient (02)</t>
-  </si>
-  <si>
-    <t>flagging of full NP; i.e. adpositional or case marking</t>
+    <t>Which object can be incorporated, recipient or theme or either?</t>
   </si>
 </sst>
 </file>
@@ -164,121 +188,145 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="B6" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>8</v>
-      </c>
       <c r="C6" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>7.1</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>6.1</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>5.1</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
